--- a/2021_R/res/sample1.xlsx
+++ b/2021_R/res/sample1.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
